--- a/PROJECT MANAGEMENT/Test Cases/Manual Tests.xlsx
+++ b/PROJECT MANAGEMENT/Test Cases/Manual Tests.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="556">
   <si>
     <t>FIRST ITERATION</t>
   </si>
@@ -1474,9 +1474,6 @@
     <t>game started again</t>
   </si>
   <si>
-    <t>5 iteracja/4story</t>
-  </si>
-  <si>
     <t>TEST 124</t>
   </si>
   <si>
@@ -1492,9 +1489,6 @@
     <t>TEST 126</t>
   </si>
   <si>
-    <t>5 iteracja/5story</t>
-  </si>
-  <si>
     <t>when the puck bounce from the wall</t>
   </si>
   <si>
@@ -1504,9 +1498,6 @@
     <t>TEST 127</t>
   </si>
   <si>
-    <t>6 iteracja/2 story</t>
-  </si>
-  <si>
     <t>when I don't hit the puck</t>
   </si>
   <si>
@@ -1522,9 +1513,6 @@
     <t>TEST 129</t>
   </si>
   <si>
-    <t>1 iteracja/ 4 story</t>
-  </si>
-  <si>
     <t>puck bounce from the goalposts</t>
   </si>
   <si>
@@ -1540,9 +1528,6 @@
     <t>TEST 131</t>
   </si>
   <si>
-    <t>2 iteracja/ 2 story</t>
-  </si>
-  <si>
     <t>when the puck exceeds the red line in my goalposts</t>
   </si>
   <si>
@@ -1570,9 +1555,6 @@
     <t>the button is highlighted</t>
   </si>
   <si>
-    <t>2 iteracja/3 story</t>
-  </si>
-  <si>
     <t>TEST 134</t>
   </si>
   <si>
@@ -1582,9 +1564,6 @@
     <t>TEST 135</t>
   </si>
   <si>
-    <t>1 iteracja/ 3 story</t>
-  </si>
-  <si>
     <t>TEST 136</t>
   </si>
   <si>
@@ -1639,9 +1618,6 @@
     <t>TEST 143</t>
   </si>
   <si>
-    <t>5 i 1</t>
-  </si>
-  <si>
     <t>EXIT BUTTON with centered text showed up in menu</t>
   </si>
   <si>
@@ -1672,9 +1648,6 @@
     <t>dodatkowy 147</t>
   </si>
   <si>
-    <t>2 i 4</t>
-  </si>
-  <si>
     <t>i install the game on the HTC Evo 3D</t>
   </si>
   <si>
@@ -1706,6 +1679,9 @@
   </si>
   <si>
     <t>application is closed</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -1739,7 +1715,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1798,6 +1774,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8EB4E3"/>
         <bgColor rgb="FF9FC5E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1930,7 +1912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2113,28 +2095,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2143,8 +2110,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2517,8 +2502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L929"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A511" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="D511" sqref="D511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2527,25 +2512,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="69"/>
+      <c r="A3" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="63"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -2775,16 +2760,16 @@
       <c r="K21" s="15"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="67"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
@@ -2969,16 +2954,16 @@
       <c r="C39" s="5"/>
     </row>
     <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="69" t="s">
+      <c r="A40" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="69"/>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
     </row>
     <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
@@ -3095,16 +3080,16 @@
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="67" t="s">
+      <c r="A52" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="67"/>
-      <c r="C52" s="67"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="67"/>
-      <c r="B53" s="67"/>
-      <c r="C53" s="67"/>
+      <c r="A53" s="64"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="64"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
@@ -3221,16 +3206,16 @@
       <c r="C63" s="5"/>
     </row>
     <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="69" t="s">
+      <c r="A64" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="69"/>
-      <c r="C64" s="69"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="63"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="69"/>
-      <c r="B65" s="69"/>
-      <c r="C65" s="69"/>
+      <c r="A65" s="63"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="63"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
@@ -3379,19 +3364,19 @@
       <c r="F76" s="22"/>
     </row>
     <row r="77" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="67" t="s">
+      <c r="A77" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="B77" s="67"/>
-      <c r="C77" s="67"/>
+      <c r="B77" s="64"/>
+      <c r="C77" s="64"/>
       <c r="D77" s="22"/>
       <c r="E77" s="22"/>
       <c r="F77" s="22"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="67"/>
-      <c r="B78" s="67"/>
-      <c r="C78" s="67"/>
+      <c r="A78" s="64"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="64"/>
       <c r="D78" s="22"/>
       <c r="E78" s="22"/>
       <c r="F78" s="22"/>
@@ -4193,37 +4178,37 @@
       <c r="F133" s="22"/>
     </row>
     <row r="134" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="70" t="s">
+      <c r="A134" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="B134" s="70"/>
-      <c r="C134" s="70"/>
+      <c r="B134" s="65"/>
+      <c r="C134" s="65"/>
       <c r="D134" s="22"/>
       <c r="E134" s="22"/>
       <c r="F134" s="22"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="70"/>
-      <c r="B135" s="70"/>
-      <c r="C135" s="70"/>
+      <c r="A135" s="65"/>
+      <c r="B135" s="65"/>
+      <c r="C135" s="65"/>
       <c r="D135" s="22"/>
       <c r="E135" s="22"/>
       <c r="F135" s="22"/>
     </row>
     <row r="136" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="71" t="s">
+      <c r="A136" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="B136" s="71"/>
-      <c r="C136" s="71"/>
+      <c r="B136" s="66"/>
+      <c r="C136" s="66"/>
       <c r="D136" s="27"/>
       <c r="E136" s="22"/>
       <c r="F136" s="22"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="71"/>
-      <c r="B137" s="71"/>
-      <c r="C137" s="71"/>
+      <c r="A137" s="66"/>
+      <c r="B137" s="66"/>
+      <c r="C137" s="66"/>
       <c r="D137" s="27"/>
       <c r="E137" s="22"/>
       <c r="F137" s="22"/>
@@ -4499,19 +4484,19 @@
       <c r="F157" s="22"/>
     </row>
     <row r="158" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="69" t="s">
+      <c r="A158" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="B158" s="69"/>
-      <c r="C158" s="69"/>
+      <c r="B158" s="63"/>
+      <c r="C158" s="63"/>
       <c r="D158" s="22"/>
       <c r="E158" s="22"/>
       <c r="F158" s="22"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="69"/>
-      <c r="B159" s="69"/>
-      <c r="C159" s="69"/>
+      <c r="A159" s="63"/>
+      <c r="B159" s="63"/>
+      <c r="C159" s="63"/>
       <c r="D159" s="22"/>
       <c r="E159" s="22"/>
       <c r="F159" s="22"/>
@@ -4753,19 +4738,19 @@
       <c r="F176" s="22"/>
     </row>
     <row r="177" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="67" t="s">
+      <c r="A177" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="B177" s="67"/>
-      <c r="C177" s="67"/>
+      <c r="B177" s="64"/>
+      <c r="C177" s="64"/>
       <c r="D177" s="22"/>
       <c r="E177" s="22"/>
       <c r="F177" s="22"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178" s="67"/>
-      <c r="B178" s="67"/>
-      <c r="C178" s="67"/>
+      <c r="A178" s="64"/>
+      <c r="B178" s="64"/>
+      <c r="C178" s="64"/>
       <c r="D178" s="22"/>
       <c r="E178" s="22"/>
       <c r="F178" s="22"/>
@@ -5030,11 +5015,11 @@
       <c r="F200" s="22"/>
     </row>
     <row r="201" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="64" t="s">
+      <c r="A201" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="B201" s="64"/>
-      <c r="C201" s="64"/>
+      <c r="B201" s="67"/>
+      <c r="C201" s="67"/>
       <c r="D201" s="22"/>
       <c r="E201" s="22"/>
       <c r="F201" s="22"/>
@@ -5403,11 +5388,11 @@
       <c r="F232" s="22"/>
     </row>
     <row r="233" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="62" t="s">
+      <c r="A233" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="B233" s="62"/>
-      <c r="C233" s="62"/>
+      <c r="B233" s="69"/>
+      <c r="C233" s="69"/>
       <c r="D233" s="27"/>
       <c r="E233" s="22"/>
       <c r="F233" s="22"/>
@@ -5898,11 +5883,11 @@
       <c r="F269" s="22"/>
     </row>
     <row r="270" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="64" t="s">
+      <c r="A270" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="B270" s="64"/>
-      <c r="C270" s="64"/>
+      <c r="B270" s="67"/>
+      <c r="C270" s="67"/>
       <c r="D270" s="27"/>
       <c r="E270" s="22"/>
       <c r="F270" s="22"/>
@@ -6294,11 +6279,11 @@
       <c r="F298" s="22"/>
     </row>
     <row r="299" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="64" t="s">
+      <c r="A299" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="B299" s="64"/>
-      <c r="C299" s="64"/>
+      <c r="B299" s="67"/>
+      <c r="C299" s="67"/>
       <c r="D299" s="27"/>
       <c r="E299" s="22"/>
       <c r="F299" s="22"/>
@@ -6572,11 +6557,11 @@
       <c r="F318" s="22"/>
     </row>
     <row r="319" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="64" t="s">
+      <c r="A319" s="67" t="s">
         <v>228</v>
       </c>
-      <c r="B319" s="64"/>
-      <c r="C319" s="64"/>
+      <c r="B319" s="67"/>
+      <c r="C319" s="67"/>
       <c r="D319" s="22"/>
       <c r="E319" s="22"/>
       <c r="F319" s="22"/>
@@ -6858,11 +6843,11 @@
       <c r="F339" s="22"/>
     </row>
     <row r="340" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A340" s="64" t="s">
+      <c r="A340" s="67" t="s">
         <v>238</v>
       </c>
-      <c r="B340" s="64"/>
-      <c r="C340" s="64"/>
+      <c r="B340" s="67"/>
+      <c r="C340" s="67"/>
       <c r="D340" s="27"/>
       <c r="E340" s="22"/>
       <c r="F340" s="22"/>
@@ -7226,11 +7211,11 @@
       <c r="F366" s="22"/>
     </row>
     <row r="367" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A367" s="62" t="s">
+      <c r="A367" s="69" t="s">
         <v>266</v>
       </c>
-      <c r="B367" s="62"/>
-      <c r="C367" s="62"/>
+      <c r="B367" s="69"/>
+      <c r="C367" s="69"/>
       <c r="D367" s="22"/>
       <c r="E367" s="22"/>
       <c r="F367" s="22"/>
@@ -7791,11 +7776,11 @@
       <c r="F409" s="22"/>
     </row>
     <row r="410" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A410" s="62" t="s">
+      <c r="A410" s="69" t="s">
         <v>293</v>
       </c>
-      <c r="B410" s="62"/>
-      <c r="C410" s="62"/>
+      <c r="B410" s="69"/>
+      <c r="C410" s="69"/>
       <c r="D410" s="22"/>
       <c r="E410" s="22"/>
       <c r="F410" s="22"/>
@@ -8097,11 +8082,11 @@
       <c r="F432" s="22"/>
     </row>
     <row r="433" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A433" s="62" t="s">
+      <c r="A433" s="69" t="s">
         <v>311</v>
       </c>
-      <c r="B433" s="62"/>
-      <c r="C433" s="62"/>
+      <c r="B433" s="69"/>
+      <c r="C433" s="69"/>
       <c r="D433" s="22"/>
       <c r="E433" s="22"/>
       <c r="F433" s="22"/>
@@ -8582,11 +8567,11 @@
       <c r="F471" s="22"/>
     </row>
     <row r="472" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A472" s="62" t="s">
+      <c r="A472" s="69" t="s">
         <v>331</v>
       </c>
-      <c r="B472" s="62"/>
-      <c r="C472" s="62"/>
+      <c r="B472" s="69"/>
+      <c r="C472" s="69"/>
       <c r="D472" s="27"/>
       <c r="E472" s="22"/>
       <c r="F472" s="22"/>
@@ -8619,7 +8604,9 @@
       <c r="C475" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D475" s="27"/>
+      <c r="D475" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E475" s="22"/>
       <c r="F475" s="22"/>
     </row>
@@ -8633,7 +8620,9 @@
       <c r="C476" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="D476" s="27"/>
+      <c r="D476" s="73" t="s">
+        <v>555</v>
+      </c>
       <c r="E476" s="22"/>
       <c r="F476" s="22"/>
     </row>
@@ -8647,7 +8636,9 @@
       <c r="C477" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="D477" s="27"/>
+      <c r="D477" s="73" t="s">
+        <v>555</v>
+      </c>
       <c r="E477" s="22"/>
       <c r="F477" s="22"/>
     </row>
@@ -8661,7 +8652,9 @@
       <c r="C478" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="D478" s="27"/>
+      <c r="D478" s="73" t="s">
+        <v>555</v>
+      </c>
       <c r="E478" s="22"/>
       <c r="F478" s="22"/>
     </row>
@@ -8685,7 +8678,9 @@
       <c r="C480" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D480" s="27"/>
+      <c r="D480" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E480" s="22"/>
       <c r="F480" s="22"/>
     </row>
@@ -8699,7 +8694,9 @@
       <c r="C481" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="D481" s="27"/>
+      <c r="D481" s="73" t="s">
+        <v>555</v>
+      </c>
       <c r="E481" s="22"/>
       <c r="F481" s="22"/>
     </row>
@@ -8713,7 +8710,9 @@
       <c r="C482" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="D482" s="27"/>
+      <c r="D482" s="73" t="s">
+        <v>555</v>
+      </c>
       <c r="E482" s="22"/>
       <c r="F482" s="22"/>
     </row>
@@ -8727,7 +8726,9 @@
       <c r="C483" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="D483" s="27"/>
+      <c r="D483" s="73" t="s">
+        <v>555</v>
+      </c>
       <c r="E483" s="22"/>
       <c r="F483" s="22"/>
     </row>
@@ -8759,7 +8760,9 @@
       <c r="C486" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D486" s="27"/>
+      <c r="D486" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E486" s="22"/>
       <c r="F486" s="22"/>
     </row>
@@ -8773,7 +8776,9 @@
       <c r="C487" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="D487" s="27"/>
+      <c r="D487" s="73" t="s">
+        <v>555</v>
+      </c>
       <c r="E487" s="22"/>
       <c r="F487" s="22"/>
     </row>
@@ -8787,7 +8792,9 @@
       <c r="C488" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="D488" s="27"/>
+      <c r="D488" s="73" t="s">
+        <v>555</v>
+      </c>
       <c r="E488" s="22"/>
       <c r="F488" s="22"/>
     </row>
@@ -8801,7 +8808,9 @@
       <c r="C489" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="D489" s="27"/>
+      <c r="D489" s="73" t="s">
+        <v>555</v>
+      </c>
       <c r="E489" s="22"/>
       <c r="F489" s="22"/>
     </row>
@@ -8825,7 +8834,9 @@
       <c r="C491" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D491" s="27"/>
+      <c r="D491" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E491" s="22"/>
       <c r="F491" s="22"/>
     </row>
@@ -8839,7 +8850,9 @@
       <c r="C492" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="D492" s="27"/>
+      <c r="D492" s="73" t="s">
+        <v>555</v>
+      </c>
       <c r="E492" s="22"/>
       <c r="F492" s="22"/>
     </row>
@@ -8853,7 +8866,9 @@
       <c r="C493" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="D493" s="27"/>
+      <c r="D493" s="73" t="s">
+        <v>555</v>
+      </c>
       <c r="E493" s="22"/>
       <c r="F493" s="22"/>
     </row>
@@ -8867,7 +8882,9 @@
       <c r="C494" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="D494" s="27"/>
+      <c r="D494" s="73" t="s">
+        <v>555</v>
+      </c>
       <c r="E494" s="22"/>
       <c r="F494" s="22"/>
     </row>
@@ -8891,7 +8908,9 @@
       <c r="C496" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D496" s="27"/>
+      <c r="D496" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E496" s="22"/>
       <c r="F496" s="22"/>
     </row>
@@ -8905,7 +8924,9 @@
       <c r="C497" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="D497" s="27"/>
+      <c r="D497" s="73" t="s">
+        <v>555</v>
+      </c>
       <c r="E497" s="22"/>
       <c r="F497" s="22"/>
     </row>
@@ -8919,7 +8940,9 @@
       <c r="C498" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="D498" s="27"/>
+      <c r="D498" s="73" t="s">
+        <v>555</v>
+      </c>
       <c r="E498" s="22"/>
       <c r="F498" s="22"/>
     </row>
@@ -8933,7 +8956,9 @@
       <c r="C499" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="D499" s="27"/>
+      <c r="D499" s="73" t="s">
+        <v>555</v>
+      </c>
       <c r="E499" s="22"/>
       <c r="F499" s="22"/>
     </row>
@@ -8957,7 +8982,9 @@
       <c r="C501" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D501" s="27"/>
+      <c r="D501" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E501" s="22"/>
       <c r="F501" s="22"/>
     </row>
@@ -8971,7 +8998,9 @@
       <c r="C502" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="D502" s="27"/>
+      <c r="D502" s="73" t="s">
+        <v>555</v>
+      </c>
       <c r="E502" s="22"/>
       <c r="F502" s="22"/>
     </row>
@@ -8985,7 +9014,9 @@
       <c r="C503" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="D503" s="27"/>
+      <c r="D503" s="73" t="s">
+        <v>555</v>
+      </c>
       <c r="E503" s="22"/>
       <c r="F503" s="22"/>
     </row>
@@ -8999,7 +9030,9 @@
       <c r="C504" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="D504" s="27"/>
+      <c r="D504" s="73" t="s">
+        <v>555</v>
+      </c>
       <c r="E504" s="22"/>
       <c r="F504" s="22"/>
     </row>
@@ -9023,7 +9056,9 @@
       <c r="C506" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D506" s="27"/>
+      <c r="D506" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E506" s="33"/>
       <c r="F506" s="22"/>
     </row>
@@ -9037,7 +9072,9 @@
       <c r="C507" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="D507" s="27"/>
+      <c r="D507" s="73" t="s">
+        <v>555</v>
+      </c>
       <c r="E507" s="33"/>
       <c r="F507" s="22"/>
     </row>
@@ -9051,7 +9088,9 @@
       <c r="C508" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="D508" s="27"/>
+      <c r="D508" s="73" t="s">
+        <v>555</v>
+      </c>
       <c r="E508" s="33"/>
       <c r="F508" s="22"/>
     </row>
@@ -9065,7 +9104,9 @@
       <c r="C509" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="D509" s="27"/>
+      <c r="D509" s="73" t="s">
+        <v>555</v>
+      </c>
       <c r="E509" s="22"/>
       <c r="F509" s="22"/>
     </row>
@@ -9089,7 +9130,9 @@
       <c r="C511" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D511" s="27"/>
+      <c r="D511" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E511" s="22"/>
       <c r="F511" s="22"/>
     </row>
@@ -9103,7 +9146,9 @@
       <c r="C512" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="D512" s="27"/>
+      <c r="D512" s="73" t="s">
+        <v>555</v>
+      </c>
       <c r="E512" s="22"/>
       <c r="F512" s="22"/>
     </row>
@@ -9117,7 +9162,9 @@
       <c r="C513" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="D513" s="27"/>
+      <c r="D513" s="73" t="s">
+        <v>555</v>
+      </c>
       <c r="E513" s="22"/>
       <c r="F513" s="22"/>
     </row>
@@ -9131,7 +9178,9 @@
       <c r="C514" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="D514" s="27"/>
+      <c r="D514" s="73" t="s">
+        <v>555</v>
+      </c>
       <c r="E514" s="22"/>
       <c r="F514" s="22"/>
     </row>
@@ -9155,7 +9204,9 @@
       <c r="C516" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D516" s="27"/>
+      <c r="D516" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E516" s="22"/>
       <c r="F516" s="22"/>
     </row>
@@ -9169,7 +9220,9 @@
       <c r="C517" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="D517" s="27"/>
+      <c r="D517" s="73" t="s">
+        <v>555</v>
+      </c>
       <c r="E517" s="22"/>
       <c r="F517" s="22"/>
     </row>
@@ -9183,7 +9236,9 @@
       <c r="C518" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="D518" s="27"/>
+      <c r="D518" s="73" t="s">
+        <v>555</v>
+      </c>
       <c r="E518" s="22"/>
       <c r="F518" s="22"/>
     </row>
@@ -9197,7 +9252,9 @@
       <c r="C519" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="D519" s="27"/>
+      <c r="D519" s="73" t="s">
+        <v>555</v>
+      </c>
       <c r="E519" s="22"/>
       <c r="F519" s="22"/>
     </row>
@@ -9210,11 +9267,11 @@
       <c r="F520" s="22"/>
     </row>
     <row r="521" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A521" s="64" t="s">
+      <c r="A521" s="67" t="s">
         <v>354</v>
       </c>
-      <c r="B521" s="64"/>
-      <c r="C521" s="64"/>
+      <c r="B521" s="67"/>
+      <c r="C521" s="67"/>
       <c r="D521" s="27"/>
       <c r="E521" s="22"/>
       <c r="F521" s="22"/>
@@ -9247,7 +9304,9 @@
       <c r="C524" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D524" s="27"/>
+      <c r="D524" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E524" s="22"/>
       <c r="F524" s="22"/>
     </row>
@@ -9261,7 +9320,9 @@
       <c r="C525" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="D525" s="27"/>
+      <c r="D525" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E525" s="22"/>
       <c r="F525" s="22"/>
     </row>
@@ -9275,7 +9336,9 @@
       <c r="C526" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="D526" s="27"/>
+      <c r="D526" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E526" s="22"/>
       <c r="F526" s="22"/>
     </row>
@@ -9289,7 +9352,9 @@
       <c r="C527" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="D527" s="27"/>
+      <c r="D527" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E527" s="22"/>
       <c r="F527" s="22"/>
     </row>
@@ -9303,7 +9368,9 @@
       <c r="C528" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="D528" s="27"/>
+      <c r="D528" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E528" s="22"/>
       <c r="F528" s="22"/>
     </row>
@@ -9327,7 +9394,9 @@
       <c r="C530" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D530" s="27"/>
+      <c r="D530" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E530" s="22"/>
       <c r="F530" s="22"/>
     </row>
@@ -9341,7 +9410,9 @@
       <c r="C531" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="D531" s="27"/>
+      <c r="D531" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E531" s="22"/>
       <c r="F531" s="22"/>
     </row>
@@ -9355,7 +9426,9 @@
       <c r="C532" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="D532" s="27"/>
+      <c r="D532" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E532" s="22"/>
       <c r="F532" s="22"/>
     </row>
@@ -9385,7 +9458,9 @@
       <c r="C535" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D535" s="27"/>
+      <c r="D535" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E535" s="22"/>
       <c r="F535" s="22"/>
     </row>
@@ -9399,7 +9474,9 @@
       <c r="C536" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="D536" s="27"/>
+      <c r="D536" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E536" s="22"/>
       <c r="F536" s="22"/>
     </row>
@@ -9413,7 +9490,9 @@
       <c r="C537" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D537" s="27"/>
+      <c r="D537" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E537" s="22"/>
       <c r="F537" s="22"/>
     </row>
@@ -9427,7 +9506,9 @@
       <c r="C538" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="D538" s="27"/>
+      <c r="D538" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E538" s="22"/>
       <c r="F538" s="22"/>
     </row>
@@ -9451,7 +9532,9 @@
       <c r="C540" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D540" s="27"/>
+      <c r="D540" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E540" s="22"/>
       <c r="F540" s="22"/>
     </row>
@@ -9465,7 +9548,9 @@
       <c r="C541" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="D541" s="27"/>
+      <c r="D541" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E541" s="22"/>
       <c r="F541" s="22"/>
     </row>
@@ -9479,7 +9564,9 @@
       <c r="C542" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="D542" s="27"/>
+      <c r="D542" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E542" s="22"/>
       <c r="F542" s="22"/>
     </row>
@@ -9504,11 +9591,11 @@
       <c r="F545" s="22"/>
     </row>
     <row r="546" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A546" s="64" t="s">
+      <c r="A546" s="67" t="s">
         <v>374</v>
       </c>
-      <c r="B546" s="64"/>
-      <c r="C546" s="64"/>
+      <c r="B546" s="67"/>
+      <c r="C546" s="67"/>
       <c r="D546" s="27"/>
       <c r="E546" s="22"/>
       <c r="F546" s="22"/>
@@ -9549,7 +9636,9 @@
       <c r="C550" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D550" s="27"/>
+      <c r="D550" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E550" s="22"/>
       <c r="F550" s="22"/>
     </row>
@@ -9563,7 +9652,9 @@
       <c r="C551" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="D551" s="27"/>
+      <c r="D551" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E551" s="22"/>
       <c r="F551" s="22"/>
     </row>
@@ -9577,7 +9668,9 @@
       <c r="C552" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="D552" s="27"/>
+      <c r="D552" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E552" s="22"/>
       <c r="F552" s="22"/>
     </row>
@@ -9591,7 +9684,9 @@
       <c r="C553" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="D553" s="27"/>
+      <c r="D553" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E553" s="22"/>
       <c r="F553" s="22"/>
     </row>
@@ -9605,7 +9700,9 @@
       <c r="C554" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="D554" s="27"/>
+      <c r="D554" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E554" s="22"/>
       <c r="F554" s="22"/>
     </row>
@@ -9629,7 +9726,9 @@
       <c r="C556" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D556" s="27"/>
+      <c r="D556" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E556" s="22"/>
       <c r="F556" s="22"/>
     </row>
@@ -9649,7 +9748,9 @@
       <c r="C558" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D558" s="27"/>
+      <c r="D558" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E558" s="22"/>
       <c r="F558" s="22"/>
     </row>
@@ -9663,7 +9764,9 @@
       <c r="C559" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="D559" s="27"/>
+      <c r="D559" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E559" s="22"/>
       <c r="F559" s="22"/>
     </row>
@@ -9685,7 +9788,9 @@
       <c r="C561" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D561" s="27"/>
+      <c r="D561" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E561" s="22"/>
       <c r="F561" s="22"/>
     </row>
@@ -9699,7 +9804,9 @@
       <c r="C562" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="D562" s="27"/>
+      <c r="D562" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E562" s="22"/>
       <c r="F562" s="22"/>
     </row>
@@ -9713,7 +9820,9 @@
       <c r="C563" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="D563" s="27"/>
+      <c r="D563" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E563" s="22"/>
       <c r="F563" s="22"/>
     </row>
@@ -9727,7 +9836,9 @@
       <c r="C564" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="D564" s="27"/>
+      <c r="D564" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E564" s="22"/>
       <c r="F564" s="22"/>
     </row>
@@ -9741,7 +9852,9 @@
       <c r="C565" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="D565" s="27"/>
+      <c r="D565" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E565" s="22"/>
       <c r="F565" s="22"/>
     </row>
@@ -9760,11 +9873,11 @@
       <c r="F567" s="22"/>
     </row>
     <row r="568" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A568" s="64" t="s">
+      <c r="A568" s="67" t="s">
         <v>385</v>
       </c>
-      <c r="B568" s="64"/>
-      <c r="C568" s="64"/>
+      <c r="B568" s="67"/>
+      <c r="C568" s="67"/>
       <c r="D568" s="27"/>
       <c r="E568" s="22"/>
       <c r="F568" s="22"/>
@@ -9797,7 +9910,9 @@
       <c r="C571" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D571" s="27"/>
+      <c r="D571" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E571" s="22"/>
       <c r="F571" s="22"/>
     </row>
@@ -9811,7 +9926,9 @@
       <c r="C572" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D572" s="27"/>
+      <c r="D572" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E572" s="22"/>
       <c r="F572" s="22"/>
     </row>
@@ -9825,7 +9942,9 @@
       <c r="C573" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="D573" s="27"/>
+      <c r="D573" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E573" s="22"/>
       <c r="F573" s="22"/>
     </row>
@@ -9839,7 +9958,9 @@
       <c r="C574" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="D574" s="27"/>
+      <c r="D574" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E574" s="22"/>
       <c r="F574" s="22"/>
     </row>
@@ -9863,7 +9984,9 @@
       <c r="C576" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D576" s="27"/>
+      <c r="D576" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E576" s="22"/>
       <c r="F576" s="22"/>
     </row>
@@ -9877,7 +10000,9 @@
       <c r="C577" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D577" s="27"/>
+      <c r="D577" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E577" s="22"/>
       <c r="F577" s="22"/>
     </row>
@@ -9891,7 +10016,9 @@
       <c r="C578" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="D578" s="27"/>
+      <c r="D578" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E578" s="22"/>
       <c r="F578" s="22"/>
     </row>
@@ -9905,7 +10032,9 @@
       <c r="C579" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="D579" s="27"/>
+      <c r="D579" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E579" s="22"/>
       <c r="F579" s="22"/>
     </row>
@@ -9929,7 +10058,9 @@
       <c r="C581" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D581" s="27"/>
+      <c r="D581" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E581" s="22"/>
       <c r="F581" s="22"/>
     </row>
@@ -9943,7 +10074,9 @@
       <c r="C582" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D582" s="27"/>
+      <c r="D582" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E582" s="22"/>
       <c r="F582" s="22"/>
     </row>
@@ -9957,7 +10090,9 @@
       <c r="C583" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="D583" s="27"/>
+      <c r="D583" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E583" s="22"/>
       <c r="F583" s="22"/>
     </row>
@@ -9971,7 +10106,9 @@
       <c r="C584" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="D584" s="27"/>
+      <c r="D584" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E584" s="22"/>
       <c r="F584" s="22"/>
     </row>
@@ -9995,7 +10132,9 @@
       <c r="C586" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D586" s="27"/>
+      <c r="D586" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E586" s="22"/>
       <c r="F586" s="22"/>
     </row>
@@ -10009,7 +10148,9 @@
       <c r="C587" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="D587" s="27"/>
+      <c r="D587" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E587" s="22"/>
       <c r="F587" s="22"/>
     </row>
@@ -10023,7 +10164,9 @@
       <c r="C588" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="D588" s="27"/>
+      <c r="D588" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E588" s="22"/>
       <c r="F588" s="22"/>
     </row>
@@ -10036,11 +10179,11 @@
       <c r="F589" s="22"/>
     </row>
     <row r="590" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A590" s="64" t="s">
+      <c r="A590" s="67" t="s">
         <v>400</v>
       </c>
-      <c r="B590" s="64"/>
-      <c r="C590" s="64"/>
+      <c r="B590" s="67"/>
+      <c r="C590" s="67"/>
       <c r="D590" s="27"/>
       <c r="E590" s="22"/>
       <c r="F590" s="22"/>
@@ -10073,7 +10216,9 @@
       <c r="C593" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D593" s="27"/>
+      <c r="D593" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E593" s="22"/>
       <c r="F593" s="22"/>
     </row>
@@ -10087,7 +10232,9 @@
       <c r="C594" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="D594" s="27"/>
+      <c r="D594" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E594" s="22"/>
       <c r="F594" s="22"/>
     </row>
@@ -10101,7 +10248,9 @@
       <c r="C595" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="D595" s="27"/>
+      <c r="D595" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E595" s="22"/>
       <c r="F595" s="22"/>
     </row>
@@ -10115,7 +10264,9 @@
       <c r="C596" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="D596" s="27"/>
+      <c r="D596" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E596" s="22"/>
       <c r="F596" s="22"/>
     </row>
@@ -10147,7 +10298,9 @@
       <c r="C599" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D599" s="27"/>
+      <c r="D599" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E599" s="22"/>
       <c r="F599" s="22"/>
     </row>
@@ -10161,7 +10314,9 @@
       <c r="C600" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="D600" s="27"/>
+      <c r="D600" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E600" s="22"/>
       <c r="F600" s="22"/>
     </row>
@@ -10175,7 +10330,9 @@
       <c r="C601" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="D601" s="27"/>
+      <c r="D601" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E601" s="22"/>
       <c r="F601" s="22"/>
     </row>
@@ -10207,7 +10364,9 @@
       <c r="C604" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D604" s="27"/>
+      <c r="D604" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E604" s="22"/>
       <c r="F604" s="22"/>
     </row>
@@ -10221,7 +10380,9 @@
       <c r="C605" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="D605" s="27"/>
+      <c r="D605" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E605" s="22"/>
       <c r="F605" s="22"/>
     </row>
@@ -10235,7 +10396,9 @@
       <c r="C606" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="D606" s="27"/>
+      <c r="D606" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E606" s="22"/>
       <c r="F606" s="22"/>
     </row>
@@ -10267,7 +10430,9 @@
       <c r="C609" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D609" s="27"/>
+      <c r="D609" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E609" s="22"/>
       <c r="F609" s="22"/>
     </row>
@@ -10281,7 +10446,9 @@
       <c r="C610" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="D610" s="27"/>
+      <c r="D610" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E610" s="22"/>
       <c r="F610" s="22"/>
     </row>
@@ -10295,7 +10462,9 @@
       <c r="C611" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="D611" s="27"/>
+      <c r="D611" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E611" s="22"/>
       <c r="F611" s="22"/>
     </row>
@@ -10309,7 +10478,9 @@
       <c r="C612" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="D612" s="27"/>
+      <c r="D612" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E612" s="22"/>
       <c r="F612" s="22"/>
     </row>
@@ -10322,29 +10493,29 @@
       <c r="F613" s="22"/>
     </row>
     <row r="614" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A614" s="66" t="s">
+      <c r="A614" s="70" t="s">
         <v>416</v>
       </c>
-      <c r="B614" s="66"/>
-      <c r="C614" s="66"/>
+      <c r="B614" s="70"/>
+      <c r="C614" s="70"/>
       <c r="D614" s="27"/>
       <c r="E614" s="22"/>
       <c r="F614" s="22"/>
     </row>
     <row r="615" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A615" s="66"/>
-      <c r="B615" s="66"/>
-      <c r="C615" s="66"/>
+      <c r="A615" s="70"/>
+      <c r="B615" s="70"/>
+      <c r="C615" s="70"/>
       <c r="D615" s="27"/>
       <c r="E615" s="22"/>
       <c r="F615" s="22"/>
     </row>
     <row r="616" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A616" s="63" t="s">
+      <c r="A616" s="71" t="s">
         <v>417</v>
       </c>
-      <c r="B616" s="63"/>
-      <c r="C616" s="63"/>
+      <c r="B616" s="71"/>
+      <c r="C616" s="71"/>
       <c r="D616" s="27"/>
       <c r="E616" s="22"/>
       <c r="F616" s="22"/>
@@ -10377,7 +10548,9 @@
       <c r="C619" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D619" s="27"/>
+      <c r="D619" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E619" s="22"/>
       <c r="F619" s="22"/>
     </row>
@@ -10391,7 +10564,9 @@
       <c r="C620" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="D620" s="27"/>
+      <c r="D620" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E620" s="22"/>
       <c r="F620" s="22"/>
     </row>
@@ -10405,7 +10580,9 @@
       <c r="C621" s="21" t="s">
         <v>419</v>
       </c>
-      <c r="D621" s="27"/>
+      <c r="D621" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E621" s="22"/>
       <c r="F621" s="22"/>
     </row>
@@ -10437,7 +10614,9 @@
       <c r="C624" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D624" s="27"/>
+      <c r="D624" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E624" s="22"/>
       <c r="F624" s="22"/>
     </row>
@@ -10451,7 +10630,9 @@
       <c r="C625" s="18" t="s">
         <v>421</v>
       </c>
-      <c r="D625" s="27"/>
+      <c r="D625" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E625" s="22"/>
       <c r="F625" s="22"/>
     </row>
@@ -10465,7 +10646,9 @@
       <c r="C626" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="D626" s="27"/>
+      <c r="D626" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E626" s="22"/>
       <c r="F626" s="22"/>
     </row>
@@ -10479,7 +10662,9 @@
       <c r="C627" s="18" t="s">
         <v>424</v>
       </c>
-      <c r="D627" s="27"/>
+      <c r="D627" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E627" s="22"/>
       <c r="F627" s="22"/>
     </row>
@@ -10503,7 +10688,9 @@
       <c r="C629" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D629" s="27"/>
+      <c r="D629" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E629" s="22"/>
       <c r="F629" s="22"/>
     </row>
@@ -10517,7 +10704,9 @@
       <c r="C630" s="18" t="s">
         <v>421</v>
       </c>
-      <c r="D630" s="27"/>
+      <c r="D630" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E630" s="22"/>
       <c r="F630" s="22"/>
     </row>
@@ -10531,7 +10720,9 @@
       <c r="C631" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="D631" s="27"/>
+      <c r="D631" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E631" s="22"/>
       <c r="F631" s="22"/>
     </row>
@@ -10545,7 +10736,9 @@
       <c r="C632" s="18" t="s">
         <v>427</v>
       </c>
-      <c r="D632" s="27"/>
+      <c r="D632" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E632" s="22"/>
       <c r="F632" s="22"/>
     </row>
@@ -10577,7 +10770,9 @@
       <c r="C635" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D635" s="27"/>
+      <c r="D635" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E635" s="22"/>
       <c r="F635" s="22"/>
     </row>
@@ -10591,7 +10786,9 @@
       <c r="C636" s="18" t="s">
         <v>421</v>
       </c>
-      <c r="D636" s="27"/>
+      <c r="D636" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E636" s="22"/>
       <c r="F636" s="22"/>
     </row>
@@ -10605,7 +10802,9 @@
       <c r="C637" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="D637" s="27"/>
+      <c r="D637" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E637" s="22"/>
       <c r="F637" s="22"/>
     </row>
@@ -10619,7 +10818,9 @@
       <c r="C638" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="D638" s="27"/>
+      <c r="D638" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E638" s="22"/>
       <c r="F638" s="22"/>
     </row>
@@ -10643,7 +10844,9 @@
       <c r="C640" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D640" s="27"/>
+      <c r="D640" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E640" s="22"/>
       <c r="F640" s="22"/>
     </row>
@@ -10657,7 +10860,9 @@
       <c r="C641" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="D641" s="27"/>
+      <c r="D641" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E641" s="22"/>
       <c r="F641" s="22"/>
     </row>
@@ -10671,7 +10876,9 @@
       <c r="C642" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="D642" s="27"/>
+      <c r="D642" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E642" s="22"/>
       <c r="F642" s="22"/>
     </row>
@@ -10703,7 +10910,9 @@
       <c r="C645" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D645" s="27"/>
+      <c r="D645" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E645" s="22"/>
       <c r="F645" s="22"/>
     </row>
@@ -10717,7 +10926,9 @@
       <c r="C646" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="D646" s="27"/>
+      <c r="D646" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E646" s="22"/>
       <c r="F646" s="22"/>
     </row>
@@ -10731,7 +10942,9 @@
       <c r="C647" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="D647" s="27"/>
+      <c r="D647" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E647" s="22"/>
       <c r="F647" s="22"/>
     </row>
@@ -10763,7 +10976,9 @@
       <c r="C650" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D650" s="27"/>
+      <c r="D650" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E650" s="22"/>
       <c r="F650" s="22"/>
     </row>
@@ -10777,7 +10992,9 @@
       <c r="C651" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="D651" s="27"/>
+      <c r="D651" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E651" s="22"/>
       <c r="F651" s="22"/>
     </row>
@@ -10791,7 +11008,9 @@
       <c r="C652" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="D652" s="27"/>
+      <c r="D652" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E652" s="22"/>
       <c r="F652" s="22"/>
     </row>
@@ -10812,11 +11031,11 @@
       <c r="F654" s="22"/>
     </row>
     <row r="655" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A655" s="63" t="s">
+      <c r="A655" s="71" t="s">
         <v>441</v>
       </c>
-      <c r="B655" s="63"/>
-      <c r="C655" s="63"/>
+      <c r="B655" s="71"/>
+      <c r="C655" s="71"/>
       <c r="D655" s="27"/>
       <c r="E655" s="22"/>
       <c r="F655" s="22"/>
@@ -10857,7 +11076,9 @@
       <c r="C659" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D659" s="27"/>
+      <c r="D659" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E659" s="22"/>
       <c r="F659" s="22"/>
     </row>
@@ -10871,7 +11092,9 @@
       <c r="C660" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="D660" s="27"/>
+      <c r="D660" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E660" s="22"/>
       <c r="F660" s="22"/>
     </row>
@@ -10885,7 +11108,9 @@
       <c r="C661" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="D661" s="27"/>
+      <c r="D661" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E661" s="22"/>
       <c r="F661" s="22"/>
     </row>
@@ -10917,7 +11142,9 @@
       <c r="C664" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D664" s="27"/>
+      <c r="D664" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E664" s="22"/>
       <c r="F664" s="22"/>
     </row>
@@ -10931,7 +11158,9 @@
       <c r="C665" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="D665" s="27"/>
+      <c r="D665" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E665" s="22"/>
       <c r="F665" s="22"/>
     </row>
@@ -10945,7 +11174,9 @@
       <c r="C666" s="18" t="s">
         <v>447</v>
       </c>
-      <c r="D666" s="27"/>
+      <c r="D666" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E666" s="22"/>
       <c r="F666" s="22"/>
     </row>
@@ -10969,7 +11200,9 @@
       <c r="C668" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D668" s="27"/>
+      <c r="D668" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E668" s="22"/>
       <c r="F668" s="22"/>
     </row>
@@ -10983,7 +11216,9 @@
       <c r="C669" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="D669" s="27"/>
+      <c r="D669" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E669" s="22"/>
       <c r="F669" s="22"/>
     </row>
@@ -10997,7 +11232,9 @@
       <c r="C670" s="18" t="s">
         <v>450</v>
       </c>
-      <c r="D670" s="27"/>
+      <c r="D670" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E670" s="22"/>
       <c r="F670" s="22"/>
     </row>
@@ -11021,7 +11258,9 @@
       <c r="C672" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D672" s="27"/>
+      <c r="D672" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E672" s="22"/>
       <c r="F672" s="22"/>
     </row>
@@ -11035,7 +11274,9 @@
       <c r="C673" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="D673" s="27"/>
+      <c r="D673" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E673" s="22"/>
       <c r="F673" s="22"/>
     </row>
@@ -11049,7 +11290,9 @@
       <c r="C674" s="18" t="s">
         <v>453</v>
       </c>
-      <c r="D674" s="27"/>
+      <c r="D674" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E674" s="22"/>
       <c r="F674" s="22"/>
     </row>
@@ -11073,7 +11316,9 @@
       <c r="C676" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D676" s="27"/>
+      <c r="D676" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E676" s="22"/>
       <c r="F676" s="22"/>
     </row>
@@ -11087,7 +11332,9 @@
       <c r="C677" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="D677" s="27"/>
+      <c r="D677" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E677" s="22"/>
       <c r="F677" s="22"/>
     </row>
@@ -11101,7 +11348,9 @@
       <c r="C678" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="D678" s="27"/>
+      <c r="D678" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E678" s="22"/>
       <c r="F678" s="22"/>
     </row>
@@ -11125,7 +11374,9 @@
       <c r="C680" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D680" s="27"/>
+      <c r="D680" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E680" s="22"/>
       <c r="F680" s="22"/>
     </row>
@@ -11139,7 +11390,9 @@
       <c r="C681" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="D681" s="27"/>
+      <c r="D681" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E681" s="22"/>
       <c r="F681" s="22"/>
     </row>
@@ -11153,7 +11406,9 @@
       <c r="C682" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="D682" s="27"/>
+      <c r="D682" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E682" s="22"/>
       <c r="F682" s="22"/>
     </row>
@@ -11166,11 +11421,11 @@
       <c r="F683" s="22"/>
     </row>
     <row r="684" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A684" s="64" t="s">
+      <c r="A684" s="67" t="s">
         <v>459</v>
       </c>
-      <c r="B684" s="64"/>
-      <c r="C684" s="64"/>
+      <c r="B684" s="67"/>
+      <c r="C684" s="67"/>
       <c r="D684" s="27"/>
       <c r="E684" s="22"/>
       <c r="F684" s="22"/>
@@ -11203,7 +11458,9 @@
       <c r="C687" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D687" s="27"/>
+      <c r="D687" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E687" s="22"/>
       <c r="F687" s="22"/>
     </row>
@@ -11217,7 +11474,9 @@
       <c r="C688" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="D688" s="27"/>
+      <c r="D688" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E688" s="22"/>
       <c r="F688" s="22"/>
     </row>
@@ -11231,7 +11490,9 @@
       <c r="C689" s="18" t="s">
         <v>463</v>
       </c>
-      <c r="D689" s="27"/>
+      <c r="D689" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E689" s="22"/>
       <c r="F689" s="22"/>
     </row>
@@ -11255,7 +11516,9 @@
       <c r="C691" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D691" s="27"/>
+      <c r="D691" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E691" s="22"/>
       <c r="F691" s="22"/>
     </row>
@@ -11269,7 +11532,9 @@
       <c r="C692" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="D692" s="27"/>
+      <c r="D692" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E692" s="22"/>
       <c r="F692" s="22"/>
     </row>
@@ -11283,7 +11548,9 @@
       <c r="C693" s="18" t="s">
         <v>463</v>
       </c>
-      <c r="D693" s="27"/>
+      <c r="D693" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E693" s="22"/>
       <c r="F693" s="22"/>
     </row>
@@ -11307,7 +11574,9 @@
       <c r="C695" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D695" s="27"/>
+      <c r="D695" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E695" s="22"/>
       <c r="F695" s="22"/>
     </row>
@@ -11321,7 +11590,9 @@
       <c r="C696" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="D696" s="27"/>
+      <c r="D696" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E696" s="22"/>
       <c r="F696" s="22"/>
     </row>
@@ -11335,7 +11606,9 @@
       <c r="C697" s="18" t="s">
         <v>463</v>
       </c>
-      <c r="D697" s="27"/>
+      <c r="D697" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E697" s="22"/>
       <c r="F697" s="22"/>
     </row>
@@ -11359,7 +11632,9 @@
       <c r="C699" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D699" s="27"/>
+      <c r="D699" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E699" s="22"/>
       <c r="F699" s="22"/>
     </row>
@@ -11373,7 +11648,9 @@
       <c r="C700" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="D700" s="27"/>
+      <c r="D700" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E700" s="22"/>
       <c r="F700" s="22"/>
     </row>
@@ -11387,7 +11664,9 @@
       <c r="C701" s="18" t="s">
         <v>470</v>
       </c>
-      <c r="D701" s="27"/>
+      <c r="D701" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E701" s="22"/>
       <c r="F701" s="22"/>
     </row>
@@ -11411,7 +11690,9 @@
       <c r="C703" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D703" s="27"/>
+      <c r="D703" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E703" s="22"/>
       <c r="F703" s="22"/>
     </row>
@@ -11425,7 +11706,9 @@
       <c r="C704" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="D704" s="27"/>
+      <c r="D704" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E704" s="22"/>
       <c r="F704" s="22"/>
     </row>
@@ -11439,7 +11722,9 @@
       <c r="C705" s="18" t="s">
         <v>463</v>
       </c>
-      <c r="D705" s="27"/>
+      <c r="D705" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E705" s="22"/>
       <c r="F705" s="22"/>
     </row>
@@ -11461,7 +11746,9 @@
       <c r="C707" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D707" s="27"/>
+      <c r="D707" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E707" s="22"/>
       <c r="F707" s="22"/>
     </row>
@@ -11475,7 +11762,9 @@
       <c r="C708" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="D708" s="27"/>
+      <c r="D708" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E708" s="22"/>
       <c r="F708" s="22"/>
     </row>
@@ -11489,32 +11778,34 @@
       <c r="C709" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="D709" s="27"/>
+      <c r="D709" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E709" s="22"/>
       <c r="F709" s="22"/>
     </row>
     <row r="710" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A710" s="65" t="s">
+      <c r="A710" s="72" t="s">
         <v>474</v>
       </c>
-      <c r="B710" s="65"/>
-      <c r="C710" s="65"/>
+      <c r="B710" s="72"/>
+      <c r="C710" s="72"/>
       <c r="D710" s="27"/>
       <c r="E710" s="22"/>
       <c r="F710" s="22"/>
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A711" s="65"/>
-      <c r="B711" s="65"/>
-      <c r="C711" s="65"/>
+      <c r="A711" s="72"/>
+      <c r="B711" s="72"/>
+      <c r="C711" s="72"/>
       <c r="D711" s="27"/>
       <c r="E711" s="22"/>
       <c r="F711" s="22"/>
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A712" s="65"/>
-      <c r="B712" s="65"/>
-      <c r="C712" s="65"/>
+      <c r="A712" s="72"/>
+      <c r="B712" s="72"/>
+      <c r="C712" s="72"/>
       <c r="D712" s="27"/>
       <c r="E712" s="22"/>
       <c r="F712" s="22"/>
@@ -11547,7 +11838,9 @@
       <c r="C715" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D715" s="27"/>
+      <c r="D715" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E715" s="22"/>
       <c r="F715" s="22"/>
     </row>
@@ -11561,7 +11854,9 @@
       <c r="C716" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="D716" s="27"/>
+      <c r="D716" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E716" s="22"/>
       <c r="F716" s="22"/>
     </row>
@@ -11575,7 +11870,9 @@
       <c r="C717" s="18" t="s">
         <v>477</v>
       </c>
-      <c r="D717" s="27"/>
+      <c r="D717" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E717" s="22"/>
       <c r="F717" s="22"/>
     </row>
@@ -11599,7 +11896,9 @@
       <c r="C719" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D719" s="27"/>
+      <c r="D719" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E719" s="22"/>
       <c r="F719" s="22"/>
     </row>
@@ -11613,7 +11912,9 @@
       <c r="C720" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="D720" s="27"/>
+      <c r="D720" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E720" s="22"/>
       <c r="F720" s="22"/>
     </row>
@@ -11627,7 +11928,9 @@
       <c r="C721" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="D721" s="27"/>
+      <c r="D721" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E721" s="22"/>
       <c r="F721" s="22"/>
     </row>
@@ -11651,7 +11954,9 @@
       <c r="C723" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D723" s="27"/>
+      <c r="D723" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E723" s="22"/>
       <c r="F723" s="22"/>
     </row>
@@ -11665,7 +11970,9 @@
       <c r="C724" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="D724" s="27"/>
+      <c r="D724" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E724" s="22"/>
       <c r="F724" s="22"/>
     </row>
@@ -11679,7 +11986,9 @@
       <c r="C725" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D725" s="27"/>
+      <c r="D725" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E725" s="22"/>
       <c r="F725" s="22"/>
     </row>
@@ -11693,7 +12002,9 @@
       <c r="C726" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="D726" s="22"/>
+      <c r="D726" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E726" s="22"/>
       <c r="F726" s="22"/>
     </row>
@@ -11707,7 +12018,9 @@
       <c r="C727" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="D727" s="27"/>
+      <c r="D727" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E727" s="22"/>
       <c r="F727" s="22"/>
     </row>
@@ -11725,7 +12038,9 @@
       <c r="A729" s="4"/>
       <c r="B729" s="5"/>
       <c r="C729" s="6"/>
-      <c r="D729" s="27"/>
+      <c r="D729" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E729" s="22"/>
       <c r="F729" s="22"/>
     </row>
@@ -11739,7 +12054,9 @@
       <c r="C730" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="D730" s="27"/>
+      <c r="D730" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E730" s="22"/>
       <c r="F730" s="22"/>
     </row>
@@ -11753,7 +12070,9 @@
       <c r="C731" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D731" s="22"/>
+      <c r="D731" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E731" s="22"/>
       <c r="F731" s="22"/>
     </row>
@@ -11767,7 +12086,9 @@
       <c r="C732" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="D732" s="27"/>
+      <c r="D732" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E732" s="22"/>
       <c r="F732" s="22"/>
     </row>
@@ -11781,7 +12102,9 @@
       <c r="C733" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="D733" s="27"/>
+      <c r="D733" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E733" s="22"/>
       <c r="F733" s="22"/>
     </row>
@@ -11805,7 +12128,9 @@
       <c r="C735" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D735" s="27"/>
+      <c r="D735" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E735" s="22"/>
       <c r="F735" s="22"/>
     </row>
@@ -11819,7 +12144,9 @@
       <c r="C736" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="D736" s="22"/>
+      <c r="D736" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E736" s="22"/>
       <c r="F736" s="22"/>
     </row>
@@ -11833,8 +12160,8 @@
       <c r="C737" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="D737" s="27" t="s">
-        <v>486</v>
+      <c r="D737" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="E737" s="22"/>
       <c r="F737" s="22"/>
@@ -11849,13 +12176,15 @@
       <c r="C738" s="13" t="s">
         <v>477</v>
       </c>
-      <c r="D738" s="27"/>
+      <c r="D738" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E738" s="22"/>
       <c r="F738" s="22"/>
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A739" s="57" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B739" s="16"/>
       <c r="C739" s="16"/>
@@ -11873,7 +12202,9 @@
       <c r="C740" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D740" s="27"/>
+      <c r="D740" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E740" s="22"/>
       <c r="F740" s="22"/>
     </row>
@@ -11887,7 +12218,9 @@
       <c r="C741" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="D741" s="27"/>
+      <c r="D741" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E741" s="22"/>
       <c r="F741" s="22"/>
     </row>
@@ -11899,9 +12232,11 @@
         <v>99</v>
       </c>
       <c r="C742" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="D742" s="27"/>
+        <v>487</v>
+      </c>
+      <c r="D742" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E742" s="22"/>
       <c r="F742" s="22"/>
     </row>
@@ -11915,7 +12250,7 @@
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A744" s="16" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B744" s="16"/>
       <c r="C744" s="16"/>
@@ -11933,7 +12268,9 @@
       <c r="C745" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D745" s="27"/>
+      <c r="D745" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E745" s="22"/>
       <c r="F745" s="22"/>
     </row>
@@ -11947,7 +12284,9 @@
       <c r="C746" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="D746" s="27"/>
+      <c r="D746" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E746" s="22"/>
       <c r="F746" s="22"/>
     </row>
@@ -11959,9 +12298,11 @@
         <v>99</v>
       </c>
       <c r="C747" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="D747" s="27"/>
+        <v>489</v>
+      </c>
+      <c r="D747" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E747" s="22"/>
       <c r="F747" s="22"/>
     </row>
@@ -11982,11 +12323,11 @@
       <c r="F749" s="22"/>
     </row>
     <row r="750" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A750" s="64" t="s">
+      <c r="A750" s="67" t="s">
         <v>385</v>
       </c>
-      <c r="B750" s="64"/>
-      <c r="C750" s="64"/>
+      <c r="B750" s="67"/>
+      <c r="C750" s="67"/>
       <c r="D750" s="27"/>
       <c r="E750" s="22"/>
       <c r="F750" s="22"/>
@@ -12001,7 +12342,7 @@
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A752" s="16" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B752" s="16"/>
       <c r="C752" s="16"/>
@@ -12019,8 +12360,8 @@
       <c r="C753" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D753" s="17" t="s">
-        <v>492</v>
+      <c r="D753" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E753" s="8"/>
       <c r="F753" s="8"/>
@@ -12035,7 +12376,9 @@
       <c r="C754" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="D754" s="17"/>
+      <c r="D754" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E754" s="8"/>
       <c r="F754" s="8"/>
     </row>
@@ -12044,12 +12387,14 @@
         <v>2</v>
       </c>
       <c r="B755" s="8" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C755" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="D755" s="8"/>
+        <v>492</v>
+      </c>
+      <c r="D755" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E755" s="8"/>
       <c r="F755" s="8"/>
     </row>
@@ -12063,7 +12408,7 @@
     </row>
     <row r="757" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A757" s="16" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B757" s="16"/>
       <c r="C757" s="16"/>
@@ -12081,7 +12426,9 @@
       <c r="C758" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D758" s="17"/>
+      <c r="D758" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E758" s="8"/>
       <c r="F758" s="8"/>
     </row>
@@ -12095,8 +12442,8 @@
       <c r="C759" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="D759" s="17" t="s">
-        <v>496</v>
+      <c r="D759" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="E759" s="8"/>
       <c r="F759" s="8"/>
@@ -12106,18 +12453,20 @@
         <v>2</v>
       </c>
       <c r="B760" s="20" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C760" s="13" t="s">
-        <v>498</v>
-      </c>
-      <c r="D760" s="17"/>
+        <v>495</v>
+      </c>
+      <c r="D760" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E760" s="8"/>
       <c r="F760" s="8"/>
     </row>
     <row r="761" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A761" s="16" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B761" s="16"/>
       <c r="C761" s="16"/>
@@ -12135,7 +12484,9 @@
       <c r="C762" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D762" s="17"/>
+      <c r="D762" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E762" s="8"/>
       <c r="F762" s="8"/>
     </row>
@@ -12149,7 +12500,9 @@
       <c r="C763" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="D763" s="17"/>
+      <c r="D763" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E763" s="8"/>
       <c r="F763" s="8"/>
     </row>
@@ -12158,12 +12511,14 @@
         <v>2</v>
       </c>
       <c r="B764" s="20" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C764" s="13" t="s">
-        <v>494</v>
-      </c>
-      <c r="D764" s="17"/>
+        <v>492</v>
+      </c>
+      <c r="D764" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E764" s="8"/>
       <c r="F764" s="8"/>
     </row>
@@ -12176,11 +12531,11 @@
       <c r="F765" s="8"/>
     </row>
     <row r="766" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A766" s="64" t="s">
+      <c r="A766" s="67" t="s">
         <v>400</v>
       </c>
-      <c r="B766" s="64"/>
-      <c r="C766" s="64"/>
+      <c r="B766" s="67"/>
+      <c r="C766" s="67"/>
       <c r="D766" s="17"/>
       <c r="E766" s="8"/>
       <c r="F766" s="8"/>
@@ -12195,7 +12550,7 @@
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A768" s="16" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B768" s="16"/>
       <c r="C768" s="16"/>
@@ -12213,8 +12568,8 @@
       <c r="C769" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D769" s="8" t="s">
-        <v>502</v>
+      <c r="D769" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E769" s="8"/>
       <c r="F769" s="8"/>
@@ -12229,7 +12584,9 @@
       <c r="C770" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="D770" s="8"/>
+      <c r="D770" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E770" s="8"/>
       <c r="F770" s="8"/>
     </row>
@@ -12241,18 +12598,20 @@
         <v>403</v>
       </c>
       <c r="C771" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="D771" s="8"/>
+        <v>499</v>
+      </c>
+      <c r="D771" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E771" s="8"/>
       <c r="F771" s="8"/>
     </row>
     <row r="772" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A772" s="64" t="s">
+      <c r="A772" s="67" t="s">
         <v>441</v>
       </c>
-      <c r="B772" s="64"/>
-      <c r="C772" s="64"/>
+      <c r="B772" s="67"/>
+      <c r="C772" s="67"/>
       <c r="D772" s="17"/>
       <c r="E772" s="8"/>
       <c r="F772" s="8"/>
@@ -12267,7 +12626,7 @@
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A774" s="16" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B774" s="16"/>
       <c r="C774" s="16"/>
@@ -12285,7 +12644,9 @@
       <c r="C775" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D775" s="8"/>
+      <c r="D775" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E775" s="8"/>
       <c r="F775" s="8"/>
     </row>
@@ -12299,7 +12660,9 @@
       <c r="C776" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="D776" s="17"/>
+      <c r="D776" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E776" s="8"/>
       <c r="F776" s="8"/>
     </row>
@@ -12308,18 +12671,20 @@
         <v>2</v>
       </c>
       <c r="B777" s="12" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C777" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="D777" s="17"/>
+        <v>502</v>
+      </c>
+      <c r="D777" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E777" s="8"/>
       <c r="F777" s="8"/>
     </row>
     <row r="778" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A778" s="16" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B778" s="16"/>
       <c r="C778" s="16"/>
@@ -12337,7 +12702,9 @@
       <c r="C779" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D779" s="8"/>
+      <c r="D779" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E779" s="8"/>
       <c r="F779" s="8"/>
     </row>
@@ -12351,8 +12718,8 @@
       <c r="C780" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="D780" s="8" t="s">
-        <v>508</v>
+      <c r="D780" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="E780" s="8"/>
       <c r="F780" s="8"/>
@@ -12362,21 +12729,23 @@
         <v>2</v>
       </c>
       <c r="B781" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C781" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="D781" s="8"/>
+        <v>505</v>
+      </c>
+      <c r="D781" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E781" s="8"/>
       <c r="F781" s="8"/>
     </row>
     <row r="782" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A782" s="64" t="s">
+      <c r="A782" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="B782" s="64"/>
-      <c r="C782" s="64"/>
+      <c r="B782" s="67"/>
+      <c r="C782" s="67"/>
       <c r="D782" s="8"/>
       <c r="E782" s="8"/>
       <c r="F782" s="8"/>
@@ -12391,7 +12760,7 @@
     </row>
     <row r="784" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A784" s="16" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B784" s="16"/>
       <c r="C784" s="16"/>
@@ -12409,7 +12778,9 @@
       <c r="C785" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D785" s="17"/>
+      <c r="D785" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E785" s="8"/>
       <c r="F785" s="8"/>
     </row>
@@ -12418,12 +12789,14 @@
         <v>1</v>
       </c>
       <c r="B786" s="8" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C786" s="18" t="s">
-        <v>513</v>
-      </c>
-      <c r="D786" s="8"/>
+        <v>508</v>
+      </c>
+      <c r="D786" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E786" s="8"/>
       <c r="F786" s="8"/>
     </row>
@@ -12432,18 +12805,20 @@
         <v>2</v>
       </c>
       <c r="B787" s="12" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C787" s="13" t="s">
-        <v>515</v>
-      </c>
-      <c r="D787" s="17"/>
+        <v>510</v>
+      </c>
+      <c r="D787" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E787" s="8"/>
       <c r="F787" s="8"/>
     </row>
     <row r="788" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A788" s="16" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B788" s="16"/>
       <c r="C788" s="16"/>
@@ -12461,7 +12836,9 @@
       <c r="C789" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D789" s="17"/>
+      <c r="D789" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E789" s="8"/>
       <c r="F789" s="8"/>
     </row>
@@ -12470,12 +12847,14 @@
         <v>1</v>
       </c>
       <c r="B790" s="8" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C790" s="18" t="s">
-        <v>513</v>
-      </c>
-      <c r="D790" s="8"/>
+        <v>508</v>
+      </c>
+      <c r="D790" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E790" s="8"/>
       <c r="F790" s="8"/>
     </row>
@@ -12484,13 +12863,13 @@
         <v>2</v>
       </c>
       <c r="B791" s="12" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C791" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="D791" s="8" t="s">
-        <v>518</v>
+        <v>512</v>
+      </c>
+      <c r="D791" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="E791" s="8"/>
       <c r="F791" s="8"/>
@@ -12504,11 +12883,11 @@
       <c r="F792" s="8"/>
     </row>
     <row r="793" spans="1:6" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A793" s="62" t="s">
+      <c r="A793" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="B793" s="62"/>
-      <c r="C793" s="62"/>
+      <c r="B793" s="69"/>
+      <c r="C793" s="69"/>
       <c r="D793" s="8"/>
       <c r="E793" s="8"/>
       <c r="F793" s="8"/>
@@ -12523,7 +12902,7 @@
     </row>
     <row r="795" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A795" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -12541,7 +12920,9 @@
       <c r="C796" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D796" s="17"/>
+      <c r="D796" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E796" s="8"/>
       <c r="F796" s="8"/>
     </row>
@@ -12550,12 +12931,14 @@
         <v>1</v>
       </c>
       <c r="B797" s="8" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C797" s="18" t="s">
-        <v>513</v>
-      </c>
-      <c r="D797" s="8"/>
+        <v>508</v>
+      </c>
+      <c r="D797" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E797" s="8"/>
       <c r="F797" s="8"/>
     </row>
@@ -12564,18 +12947,20 @@
         <v>2</v>
       </c>
       <c r="B798" s="12" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C798" s="13" t="s">
-        <v>515</v>
-      </c>
-      <c r="D798" s="17"/>
+        <v>510</v>
+      </c>
+      <c r="D798" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E798" s="8"/>
       <c r="F798" s="8"/>
     </row>
     <row r="799" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A799" s="16" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B799" s="16"/>
       <c r="C799" s="16"/>
@@ -12593,7 +12978,9 @@
       <c r="C800" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D800" s="17"/>
+      <c r="D800" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E800" s="8"/>
       <c r="F800" s="8"/>
     </row>
@@ -12602,12 +12989,14 @@
         <v>1</v>
       </c>
       <c r="B801" s="8" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C801" s="18" t="s">
-        <v>513</v>
-      </c>
-      <c r="D801" s="8"/>
+        <v>508</v>
+      </c>
+      <c r="D801" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E801" s="8"/>
       <c r="F801" s="8"/>
     </row>
@@ -12616,13 +13005,13 @@
         <v>2</v>
       </c>
       <c r="B802" s="12" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C802" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="D802" s="8" t="s">
-        <v>522</v>
+        <v>512</v>
+      </c>
+      <c r="D802" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="E802" s="8"/>
       <c r="F802" s="8"/>
@@ -12636,11 +13025,11 @@
       <c r="F803" s="8"/>
     </row>
     <row r="804" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A804" s="64" t="s">
+      <c r="A804" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="B804" s="64"/>
-      <c r="C804" s="64"/>
+      <c r="B804" s="67"/>
+      <c r="C804" s="67"/>
       <c r="D804" s="8"/>
       <c r="E804" s="8"/>
       <c r="F804" s="8"/>
@@ -12655,7 +13044,7 @@
     </row>
     <row r="806" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A806" s="16" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B806" s="16"/>
       <c r="C806" s="16"/>
@@ -12673,7 +13062,9 @@
       <c r="C807" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D807" s="17"/>
+      <c r="D807" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E807" s="8"/>
       <c r="F807" s="8"/>
     </row>
@@ -12682,12 +13073,14 @@
         <v>1</v>
       </c>
       <c r="B808" s="8" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C808" s="18" t="s">
-        <v>513</v>
-      </c>
-      <c r="D808" s="8"/>
+        <v>508</v>
+      </c>
+      <c r="D808" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E808" s="8"/>
       <c r="F808" s="8"/>
     </row>
@@ -12696,18 +13089,20 @@
         <v>2</v>
       </c>
       <c r="B809" s="12" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C809" s="13" t="s">
-        <v>515</v>
-      </c>
-      <c r="D809" s="17"/>
+        <v>510</v>
+      </c>
+      <c r="D809" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E809" s="8"/>
       <c r="F809" s="8"/>
     </row>
     <row r="810" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A810" s="16" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B810" s="16"/>
       <c r="C810" s="16"/>
@@ -12725,7 +13120,9 @@
       <c r="C811" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D811" s="17"/>
+      <c r="D811" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E811" s="8"/>
       <c r="F811" s="8"/>
     </row>
@@ -12734,12 +13131,14 @@
         <v>1</v>
       </c>
       <c r="B812" s="8" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C812" s="18" t="s">
-        <v>513</v>
-      </c>
-      <c r="D812" s="8"/>
+        <v>508</v>
+      </c>
+      <c r="D812" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E812" s="8"/>
       <c r="F812" s="8"/>
     </row>
@@ -12748,12 +13147,14 @@
         <v>2</v>
       </c>
       <c r="B813" s="12" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C813" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="D813" s="8"/>
+        <v>512</v>
+      </c>
+      <c r="D813" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E813" s="8"/>
       <c r="F813" s="8"/>
     </row>
@@ -12762,17 +13163,17 @@
       <c r="B814" s="5"/>
       <c r="C814" s="5"/>
       <c r="D814" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="E814" s="8"/>
       <c r="F814" s="8"/>
     </row>
     <row r="815" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A815" s="64" t="s">
-        <v>527</v>
-      </c>
-      <c r="B815" s="64"/>
-      <c r="C815" s="64"/>
+      <c r="A815" s="67" t="s">
+        <v>520</v>
+      </c>
+      <c r="B815" s="67"/>
+      <c r="C815" s="67"/>
       <c r="E815" s="8"/>
       <c r="F815" s="8"/>
     </row>
@@ -12786,7 +13187,7 @@
     </row>
     <row r="817" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A817" s="16" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B817" s="16"/>
       <c r="C817" s="16"/>
@@ -12804,7 +13205,9 @@
       <c r="C818" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D818" s="9"/>
+      <c r="D818" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E818" s="8"/>
       <c r="F818" s="8"/>
     </row>
@@ -12813,12 +13216,14 @@
         <v>1</v>
       </c>
       <c r="B819" s="8" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C819" s="18" t="s">
-        <v>513</v>
-      </c>
-      <c r="D819" s="9"/>
+        <v>508</v>
+      </c>
+      <c r="D819" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E819" s="8"/>
       <c r="F819" s="8"/>
     </row>
@@ -12830,14 +13235,17 @@
         <v>357</v>
       </c>
       <c r="C820" s="13" t="s">
-        <v>515</v>
+        <v>510</v>
+      </c>
+      <c r="D820" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="E820" s="8"/>
       <c r="F820" s="8"/>
     </row>
     <row r="821" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A821" s="16" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B821" s="16"/>
       <c r="C821" s="16"/>
@@ -12854,7 +13262,9 @@
       <c r="C822" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D822" s="9"/>
+      <c r="D822" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E822" s="8"/>
       <c r="F822" s="8"/>
     </row>
@@ -12863,12 +13273,14 @@
         <v>1</v>
       </c>
       <c r="B823" s="8" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C823" s="18" t="s">
-        <v>513</v>
-      </c>
-      <c r="D823" s="9"/>
+        <v>508</v>
+      </c>
+      <c r="D823" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E823" s="8"/>
       <c r="F823" s="8"/>
     </row>
@@ -12877,12 +13289,14 @@
         <v>2</v>
       </c>
       <c r="B824" s="12" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="C824" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="D824" s="9"/>
+        <v>512</v>
+      </c>
+      <c r="D824" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E824" s="8"/>
       <c r="F824" s="8"/>
     </row>
@@ -12899,17 +13313,17 @@
       <c r="F826" s="8"/>
     </row>
     <row r="827" spans="1:6" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A827" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="B827" s="62"/>
-      <c r="C827" s="62"/>
+      <c r="A827" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B827" s="69"/>
+      <c r="C827" s="69"/>
       <c r="E827" s="8"/>
       <c r="F827" s="8"/>
     </row>
     <row r="828" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A828" s="2" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -12927,7 +13341,9 @@
       <c r="C829" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D829" s="9"/>
+      <c r="D829" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E829" s="8"/>
       <c r="F829" s="8"/>
     </row>
@@ -12941,7 +13357,9 @@
       <c r="C830" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D830" s="9"/>
+      <c r="D830" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E830" s="8"/>
       <c r="F830" s="8"/>
     </row>
@@ -12953,9 +13371,11 @@
         <v>13</v>
       </c>
       <c r="C831" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="D831" s="9"/>
+        <v>525</v>
+      </c>
+      <c r="D831" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E831" s="8"/>
       <c r="F831" s="8"/>
     </row>
@@ -12964,10 +13384,13 @@
         <v>3</v>
       </c>
       <c r="B832" s="12" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="C832" s="13" t="s">
-        <v>534</v>
+        <v>527</v>
+      </c>
+      <c r="D832" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="E832" s="8"/>
       <c r="F832" s="8"/>
@@ -12981,7 +13404,7 @@
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A834" s="2" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -12999,7 +13422,9 @@
       <c r="C835" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D835" s="9"/>
+      <c r="D835" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E835" s="8"/>
       <c r="F835" s="8"/>
     </row>
@@ -13013,7 +13438,9 @@
       <c r="C836" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D836" s="9"/>
+      <c r="D836" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E836" s="8"/>
       <c r="F836" s="8"/>
     </row>
@@ -13025,9 +13452,11 @@
         <v>13</v>
       </c>
       <c r="C837" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="D837" s="9"/>
+        <v>525</v>
+      </c>
+      <c r="D837" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E837" s="8"/>
       <c r="F837" s="8"/>
     </row>
@@ -13036,12 +13465,14 @@
         <v>3</v>
       </c>
       <c r="B838" s="12" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="C838" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="D838" s="8"/>
+        <v>529</v>
+      </c>
+      <c r="D838" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E838" s="8"/>
       <c r="F838" s="8"/>
     </row>
@@ -13050,14 +13481,14 @@
       <c r="B839" s="5"/>
       <c r="C839" s="5"/>
       <c r="D839" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E839" s="8"/>
       <c r="F839" s="8"/>
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A840" s="2" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -13074,6 +13505,9 @@
       <c r="C841" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="D841" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E841" s="8"/>
       <c r="F841" s="8"/>
     </row>
@@ -13087,7 +13521,9 @@
       <c r="C842" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D842" s="9"/>
+      <c r="D842" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E842" s="8"/>
       <c r="F842" s="8"/>
     </row>
@@ -13099,9 +13535,11 @@
         <v>13</v>
       </c>
       <c r="C843" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="D843" s="9"/>
+        <v>525</v>
+      </c>
+      <c r="D843" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E843" s="8"/>
       <c r="F843" s="8"/>
     </row>
@@ -13110,12 +13548,14 @@
         <v>3</v>
       </c>
       <c r="B844" s="12" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="C844" s="13" t="s">
-        <v>539</v>
-      </c>
-      <c r="D844" s="9"/>
+        <v>532</v>
+      </c>
+      <c r="D844" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E844" s="8"/>
       <c r="F844" s="8"/>
     </row>
@@ -13129,7 +13569,7 @@
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A846" s="2" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -13147,7 +13587,9 @@
       <c r="C847" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D847" s="8"/>
+      <c r="D847" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E847" s="8"/>
       <c r="F847" s="8"/>
     </row>
@@ -13161,8 +13603,8 @@
       <c r="C848" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D848" t="s">
-        <v>541</v>
+      <c r="D848" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="E848" s="8"/>
       <c r="F848" s="8"/>
@@ -13175,7 +13617,10 @@
         <v>13</v>
       </c>
       <c r="C849" s="10" t="s">
-        <v>532</v>
+        <v>525</v>
+      </c>
+      <c r="D849" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="E849" s="8"/>
       <c r="F849" s="8"/>
@@ -13185,12 +13630,14 @@
         <v>3</v>
       </c>
       <c r="B850" s="12" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="C850" s="13" t="s">
-        <v>542</v>
-      </c>
-      <c r="D850" s="9"/>
+        <v>534</v>
+      </c>
+      <c r="D850" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E850" s="8"/>
       <c r="F850" s="8"/>
     </row>
@@ -13203,11 +13650,11 @@
       <c r="F851" s="8"/>
     </row>
     <row r="852" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A852" s="64" t="s">
+      <c r="A852" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="B852" s="64"/>
-      <c r="C852" s="64"/>
+      <c r="B852" s="67"/>
+      <c r="C852" s="67"/>
       <c r="D852" s="9"/>
       <c r="E852" s="8"/>
       <c r="F852" s="8"/>
@@ -13222,7 +13669,7 @@
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A854" s="59" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="B854" s="59"/>
       <c r="C854" s="59"/>
@@ -13240,6 +13687,9 @@
       <c r="C855" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="D855" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E855" s="8"/>
       <c r="F855" s="8"/>
     </row>
@@ -13253,7 +13703,9 @@
       <c r="C856" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D856" s="9"/>
+      <c r="D856" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E856" s="8"/>
       <c r="F856" s="8"/>
     </row>
@@ -13267,7 +13719,9 @@
       <c r="C857" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D857" s="9"/>
+      <c r="D857" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E857" s="8"/>
       <c r="F857" s="8"/>
     </row>
@@ -13276,12 +13730,14 @@
         <v>3</v>
       </c>
       <c r="B858" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C858" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D858" s="9"/>
+      <c r="D858" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E858" s="8"/>
       <c r="F858" s="8"/>
     </row>
@@ -13293,9 +13749,11 @@
         <v>46</v>
       </c>
       <c r="C859" s="13" t="s">
-        <v>545</v>
-      </c>
-      <c r="D859" s="9"/>
+        <v>537</v>
+      </c>
+      <c r="D859" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E859" s="8"/>
       <c r="F859" s="8"/>
     </row>
@@ -13308,11 +13766,11 @@
       <c r="F860" s="8"/>
     </row>
     <row r="861" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A861" s="62" t="s">
+      <c r="A861" s="69" t="s">
         <v>331</v>
       </c>
-      <c r="B861" s="62"/>
-      <c r="C861" s="62"/>
+      <c r="B861" s="69"/>
+      <c r="C861" s="69"/>
       <c r="E861" s="8"/>
       <c r="F861" s="8"/>
     </row>
@@ -13325,7 +13783,7 @@
     </row>
     <row r="863" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A863" s="2" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B863" s="2"/>
       <c r="C863" s="38"/>
@@ -13343,7 +13801,9 @@
       <c r="C864" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D864" s="9"/>
+      <c r="D864" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E864" s="8"/>
       <c r="F864" s="8"/>
     </row>
@@ -13352,12 +13812,14 @@
         <v>1</v>
       </c>
       <c r="B865" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C865" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="D865" s="9"/>
+      <c r="D865" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E865" s="8"/>
       <c r="F865" s="8"/>
     </row>
@@ -13371,7 +13833,9 @@
       <c r="C866" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="D866" s="9"/>
+      <c r="D866" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E866" s="8"/>
       <c r="F866" s="8"/>
     </row>
@@ -13385,7 +13849,9 @@
       <c r="C867" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="D867" s="8"/>
+      <c r="D867" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E867" s="8"/>
       <c r="F867" s="8"/>
     </row>
@@ -13394,14 +13860,14 @@
       <c r="B868" s="24"/>
       <c r="C868" s="24"/>
       <c r="D868" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="E868" s="8"/>
       <c r="F868" s="8"/>
     </row>
     <row r="869" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A869" s="16" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="B869" s="16"/>
       <c r="C869" s="40"/>
@@ -13418,6 +13884,9 @@
       <c r="C870" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="D870" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E870" s="8"/>
       <c r="F870" s="8"/>
     </row>
@@ -13426,12 +13895,14 @@
         <v>1</v>
       </c>
       <c r="B871" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="C871" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="D871" s="9"/>
+      <c r="D871" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E871" s="8"/>
       <c r="F871" s="8"/>
     </row>
@@ -13445,7 +13916,9 @@
       <c r="C872" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="D872" s="9"/>
+      <c r="D872" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E872" s="8"/>
       <c r="F872" s="8"/>
     </row>
@@ -13459,7 +13932,9 @@
       <c r="C873" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="D873" s="9"/>
+      <c r="D873" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E873" s="8"/>
       <c r="F873" s="8"/>
     </row>
@@ -13473,7 +13948,7 @@
     </row>
     <row r="875" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A875" s="16" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B875" s="16"/>
       <c r="C875" s="16"/>
@@ -13491,8 +13966,8 @@
       <c r="C876" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D876" t="s">
-        <v>552</v>
+      <c r="D876" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E876" s="8"/>
       <c r="F876" s="8"/>
@@ -13502,11 +13977,14 @@
         <v>1</v>
       </c>
       <c r="B877" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="C877" s="10" t="s">
         <v>334</v>
       </c>
+      <c r="D877" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E877" s="8"/>
       <c r="F877" s="8"/>
     </row>
@@ -13519,6 +13997,9 @@
       </c>
       <c r="C878" s="10" t="s">
         <v>335</v>
+      </c>
+      <c r="D878" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="E878" s="8"/>
       <c r="F878" s="8"/>
@@ -13533,7 +14014,9 @@
       <c r="C879" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="D879" s="9"/>
+      <c r="D879" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E879" s="8"/>
       <c r="F879" s="8"/>
     </row>
@@ -13546,11 +14029,11 @@
       <c r="F880" s="8"/>
     </row>
     <row r="881" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A881" s="62" t="s">
+      <c r="A881" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="B881" s="62"/>
-      <c r="C881" s="62"/>
+      <c r="B881" s="69"/>
+      <c r="C881" s="69"/>
       <c r="D881" s="9"/>
       <c r="E881" s="8"/>
       <c r="F881" s="8"/>
@@ -13564,12 +14047,12 @@
     </row>
     <row r="883" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="2" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
       <c r="D883" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="E883" s="8"/>
       <c r="F883" s="8"/>
@@ -13584,6 +14067,9 @@
       <c r="C884" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="D884" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E884" s="8"/>
       <c r="F884" s="8"/>
     </row>
@@ -13592,10 +14078,13 @@
         <v>1</v>
       </c>
       <c r="B885" s="8" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="C885" s="18" t="s">
-        <v>557</v>
+        <v>548</v>
+      </c>
+      <c r="D885" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="E885" s="8"/>
       <c r="F885" s="8"/>
@@ -13610,7 +14099,9 @@
       <c r="C886" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D886" s="9"/>
+      <c r="D886" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E886" s="8"/>
       <c r="F886" s="8"/>
     </row>
@@ -13631,11 +14122,11 @@
       <c r="F888" s="8"/>
     </row>
     <row r="889" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A889" s="63" t="s">
+      <c r="A889" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="B889" s="63"/>
-      <c r="C889" s="63"/>
+      <c r="B889" s="71"/>
+      <c r="C889" s="71"/>
       <c r="E889" s="8"/>
       <c r="F889" s="8"/>
     </row>
@@ -13663,6 +14154,9 @@
       <c r="C892" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="D892" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E892" s="8"/>
       <c r="F892" s="8"/>
     </row>
@@ -13671,11 +14165,14 @@
         <v>1</v>
       </c>
       <c r="B893" s="60" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="C893" s="61" t="s">
         <v>358</v>
       </c>
+      <c r="D893" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E893" s="8"/>
       <c r="F893" s="8"/>
     </row>
@@ -13684,10 +14181,13 @@
         <v>2</v>
       </c>
       <c r="B894" s="20" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="C894" s="13" t="s">
-        <v>560</v>
+        <v>551</v>
+      </c>
+      <c r="D894" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="E894" s="8"/>
       <c r="F894" s="8"/>
@@ -13700,11 +14200,11 @@
       <c r="F895" s="8"/>
     </row>
     <row r="896" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A896" s="62" t="s">
+      <c r="A896" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="B896" s="62"/>
-      <c r="C896" s="62"/>
+      <c r="B896" s="69"/>
+      <c r="C896" s="69"/>
       <c r="E896" s="8"/>
       <c r="F896" s="8"/>
     </row>
@@ -13732,6 +14232,9 @@
       <c r="C899" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="D899" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E899" s="8"/>
       <c r="F899" s="8"/>
     </row>
@@ -13740,11 +14243,14 @@
         <v>1</v>
       </c>
       <c r="B900" s="8" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="C900" s="10" t="s">
         <v>137</v>
       </c>
+      <c r="D900" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E900" s="8"/>
       <c r="F900" s="8"/>
     </row>
@@ -13753,10 +14259,13 @@
         <v>2</v>
       </c>
       <c r="B901" s="20" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="C901" s="13" t="s">
-        <v>563</v>
+        <v>554</v>
+      </c>
+      <c r="D901" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="E901" s="8"/>
       <c r="F901" s="8"/>
@@ -13894,41 +14403,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A22:C23"/>
-    <mergeCell ref="A40:C41"/>
-    <mergeCell ref="A52:C53"/>
-    <mergeCell ref="A64:C65"/>
-    <mergeCell ref="A77:C78"/>
-    <mergeCell ref="A134:C135"/>
-    <mergeCell ref="A136:C137"/>
-    <mergeCell ref="A158:C159"/>
-    <mergeCell ref="A177:C178"/>
-    <mergeCell ref="A201:C201"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="A233:C233"/>
-    <mergeCell ref="A270:C270"/>
-    <mergeCell ref="A299:C299"/>
-    <mergeCell ref="A319:C319"/>
-    <mergeCell ref="A340:C340"/>
-    <mergeCell ref="A367:C367"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A433:C433"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="A521:C521"/>
-    <mergeCell ref="A546:C546"/>
-    <mergeCell ref="A568:C568"/>
-    <mergeCell ref="A590:C590"/>
-    <mergeCell ref="A614:C615"/>
-    <mergeCell ref="A616:C616"/>
-    <mergeCell ref="A655:C655"/>
-    <mergeCell ref="A684:C684"/>
-    <mergeCell ref="A710:C712"/>
-    <mergeCell ref="A750:C750"/>
-    <mergeCell ref="A766:C766"/>
-    <mergeCell ref="A772:C772"/>
-    <mergeCell ref="A782:C782"/>
     <mergeCell ref="A861:C861"/>
     <mergeCell ref="A881:C881"/>
     <mergeCell ref="A889:C889"/>
@@ -13938,6 +14412,41 @@
     <mergeCell ref="A815:C815"/>
     <mergeCell ref="A827:C827"/>
     <mergeCell ref="A852:C852"/>
+    <mergeCell ref="A710:C712"/>
+    <mergeCell ref="A750:C750"/>
+    <mergeCell ref="A766:C766"/>
+    <mergeCell ref="A772:C772"/>
+    <mergeCell ref="A782:C782"/>
+    <mergeCell ref="A590:C590"/>
+    <mergeCell ref="A614:C615"/>
+    <mergeCell ref="A616:C616"/>
+    <mergeCell ref="A655:C655"/>
+    <mergeCell ref="A684:C684"/>
+    <mergeCell ref="A433:C433"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="A521:C521"/>
+    <mergeCell ref="A546:C546"/>
+    <mergeCell ref="A568:C568"/>
+    <mergeCell ref="A299:C299"/>
+    <mergeCell ref="A319:C319"/>
+    <mergeCell ref="A340:C340"/>
+    <mergeCell ref="A367:C367"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A177:C178"/>
+    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="A233:C233"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="A64:C65"/>
+    <mergeCell ref="A77:C78"/>
+    <mergeCell ref="A134:C135"/>
+    <mergeCell ref="A136:C137"/>
+    <mergeCell ref="A158:C159"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A22:C23"/>
+    <mergeCell ref="A40:C41"/>
+    <mergeCell ref="A52:C53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
